--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f00ad365565a9a00/Dokumente/Uni/Datenbankensysteme/DbSysFluAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="114_{C5EBC4ED-0EE8-4AC2-9E04-40AC7B8FE9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{38DEB2C7-01EC-4CF6-89C2-0E6BAE3FB02E}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{C5EBC4ED-0EE8-4AC2-9E04-40AC7B8FE9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A8CB06EF-0C79-4731-8D27-F4BE1B590111}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keywords" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Medical</t>
   </si>
@@ -120,9 +120,6 @@
     <t>cnn</t>
   </si>
   <si>
-    <t>respiratory mask</t>
-  </si>
-  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -184,6 +181,12 @@
   </si>
   <si>
     <t>disinfectant</t>
+  </si>
+  <si>
+    <t>respirator mask</t>
+  </si>
+  <si>
+    <t>flu medicine</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -597,7 +600,9 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
@@ -656,7 +661,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -684,79 +689,79 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f00ad365565a9a00/Dokumente/Uni/Datenbankensysteme/DbSysFluAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="114_{C5EBC4ED-0EE8-4AC2-9E04-40AC7B8FE9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A8CB06EF-0C79-4731-8D27-F4BE1B590111}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="114_{C5EBC4ED-0EE8-4AC2-9E04-40AC7B8FE9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{19B81147-71E3-4FDD-889D-98A1E095B3AA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Medical</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>flu medicine</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>webmd</t>
   </si>
 </sst>
 </file>
@@ -560,7 +566,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -671,6 +677,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
